--- a/data/trans_bre/P3A$yo-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A$yo-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>34.20968894659521</v>
+        <v>34.20968894659519</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.5944158292548403</v>
+        <v>0.5944158292548399</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>27.33761090442573</v>
+        <v>28.37237107611128</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.4384983899378651</v>
+        <v>0.4555515269951992</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>40.03682665426423</v>
+        <v>40.52807714467352</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.7631496947319123</v>
+        <v>0.7775902639051243</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>17.82591045981203</v>
+        <v>17.82591045981206</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2432243036318448</v>
+        <v>0.2432243036318451</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.1768990914346</v>
+        <v>11.42129578637008</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1572643069942668</v>
+        <v>0.1463318665550415</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>23.29483174889043</v>
+        <v>22.87613253171149</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3422423425004227</v>
+        <v>0.3322718474888153</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>13.56045126810489</v>
+        <v>13.56045126810486</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.1779828821731915</v>
+        <v>0.177982882173191</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.25611445321751</v>
+        <v>8.293980330206919</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.1044903734770851</v>
+        <v>0.104775775973154</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.49731473381823</v>
+        <v>19.39376872073642</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.2747047761913903</v>
+        <v>0.2678621699656413</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>23.78785871102623</v>
+        <v>23.78785871102625</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3684483021095119</v>
+        <v>0.3684483021095121</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.68726608839878</v>
+        <v>15.68710780111054</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2379293661864768</v>
+        <v>0.2209844878360652</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>31.63388998713315</v>
+        <v>31.67177136452274</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5492159517636236</v>
+        <v>0.5488954298759311</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.311369158924151</v>
+        <v>6.311369158924174</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.07158716737723858</v>
+        <v>0.07158716737723886</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.717243045172208</v>
+        <v>1.171890545814439</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.01932855275628231</v>
+        <v>0.01434708953829675</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.60390971607192</v>
+        <v>11.13177711597466</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.1387489067770125</v>
+        <v>0.1338266959230448</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>14.44225766529522</v>
+        <v>14.44225766529519</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1867036584185289</v>
+        <v>0.1867036584185285</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.634301233815222</v>
+        <v>10.04674436462018</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1178846144893638</v>
+        <v>0.1239440214379447</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.24866455745701</v>
+        <v>19.91334341343766</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2734135459485261</v>
+        <v>0.2719551696730094</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.38666732423589</v>
+        <v>10.19428190890637</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.1360059577488855</v>
+        <v>0.1351826163862077</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.0684311736388</v>
+        <v>19.80437471201951</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.2918503165202112</v>
+        <v>0.2888221180575672</v>
       </c>
     </row>
     <row r="25">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45.34772336333771</v>
+        <v>45.35001846262679</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.9771522254122679</v>
+        <v>0.9759527298813583</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>53.50564234195689</v>
+        <v>53.15426942173178</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.353157007816316</v>
+        <v>1.342226583865532</v>
       </c>
     </row>
     <row r="28">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.27177402312205</v>
+        <v>23.13400404791</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.3480311888705003</v>
+        <v>0.3442563606962628</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>27.17241778759495</v>
+        <v>27.20880241906897</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.4261865116735543</v>
+        <v>0.4259763048467824</v>
       </c>
     </row>
     <row r="31">
